--- a/Dahs2BlazorApp/wwwroot/ReportTemplate/FiveMinDailyReportWithStatus.xlsx
+++ b/Dahs2BlazorApp/wwwroot/ReportTemplate/FiveMinDailyReportWithStatus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\CPMS2\Dahs2BlazorApp\wwwroot\ReportTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6760D838-F9C1-4EC9-8615-A02BD2FC0DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A892F0C-6463-493B-8692-3426BE770457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{FBCD6651-9FDC-4AB9-82BC-A0DA37555BAF}"/>
   </bookViews>
@@ -186,8 +186,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="00"/>
-    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="182" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -386,6 +386,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -400,21 +415,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -733,7 +733,7 @@
   <dimension ref="B1:Z36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+      <selection activeCell="C7" sqref="C7:Z30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.75" x14ac:dyDescent="0.45"/>
@@ -745,30 +745,30 @@
   <sheetData>
     <row r="1" spans="2:26" ht="5.15" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
     </row>
     <row r="3" spans="2:26" ht="21.9" x14ac:dyDescent="0.45">
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B4" s="12" t="s">
@@ -777,12 +777,12 @@
       <c r="C4" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
       <c r="L4" s="12" t="s">
         <v>46</v>
       </c>
@@ -881,714 +881,714 @@
       <c r="B7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
-      <c r="Z7" s="18"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="18"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="18"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="18"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18"/>
-      <c r="W14" s="18"/>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="18"/>
-      <c r="Z14" s="18"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="18"/>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="18"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B16" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="18"/>
-      <c r="W16" s="18"/>
-      <c r="X16" s="18"/>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="18"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B17" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
-      <c r="W17" s="18"/>
-      <c r="X17" s="18"/>
-      <c r="Y17" s="18"/>
-      <c r="Z17" s="18"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B18" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="18"/>
-      <c r="W18" s="18"/>
-      <c r="X18" s="18"/>
-      <c r="Y18" s="18"/>
-      <c r="Z18" s="18"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B19" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="18"/>
-      <c r="W19" s="18"/>
-      <c r="X19" s="18"/>
-      <c r="Y19" s="18"/>
-      <c r="Z19" s="18"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
     </row>
     <row r="20" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B20" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="18"/>
-      <c r="V20" s="18"/>
-      <c r="W20" s="18"/>
-      <c r="X20" s="18"/>
-      <c r="Y20" s="18"/>
-      <c r="Z20" s="18"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
     </row>
     <row r="21" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B21" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18"/>
-      <c r="U21" s="18"/>
-      <c r="V21" s="18"/>
-      <c r="W21" s="18"/>
-      <c r="X21" s="18"/>
-      <c r="Y21" s="18"/>
-      <c r="Z21" s="18"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B22" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="18"/>
-      <c r="T22" s="18"/>
-      <c r="U22" s="18"/>
-      <c r="V22" s="18"/>
-      <c r="W22" s="18"/>
-      <c r="X22" s="18"/>
-      <c r="Y22" s="18"/>
-      <c r="Z22" s="18"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B23" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="18"/>
-      <c r="V23" s="18"/>
-      <c r="W23" s="18"/>
-      <c r="X23" s="18"/>
-      <c r="Y23" s="18"/>
-      <c r="Z23" s="18"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="13"/>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B24" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="18"/>
-      <c r="T24" s="18"/>
-      <c r="U24" s="18"/>
-      <c r="V24" s="18"/>
-      <c r="W24" s="18"/>
-      <c r="X24" s="18"/>
-      <c r="Y24" s="18"/>
-      <c r="Z24" s="18"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="13"/>
+      <c r="Z24" s="13"/>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B25" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="18"/>
-      <c r="T25" s="18"/>
-      <c r="U25" s="18"/>
-      <c r="V25" s="18"/>
-      <c r="W25" s="18"/>
-      <c r="X25" s="18"/>
-      <c r="Y25" s="18"/>
-      <c r="Z25" s="18"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="13"/>
+      <c r="Z25" s="13"/>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B26" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="18"/>
-      <c r="U26" s="18"/>
-      <c r="V26" s="18"/>
-      <c r="W26" s="18"/>
-      <c r="X26" s="18"/>
-      <c r="Y26" s="18"/>
-      <c r="Z26" s="18"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="13"/>
+      <c r="Y26" s="13"/>
+      <c r="Z26" s="13"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B27" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
-      <c r="T27" s="18"/>
-      <c r="U27" s="18"/>
-      <c r="V27" s="18"/>
-      <c r="W27" s="18"/>
-      <c r="X27" s="18"/>
-      <c r="Y27" s="18"/>
-      <c r="Z27" s="18"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="13"/>
+      <c r="Z27" s="13"/>
     </row>
     <row r="28" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B28" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
-      <c r="T28" s="18"/>
-      <c r="U28" s="18"/>
-      <c r="V28" s="18"/>
-      <c r="W28" s="18"/>
-      <c r="X28" s="18"/>
-      <c r="Y28" s="18"/>
-      <c r="Z28" s="18"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="13"/>
+      <c r="Z28" s="13"/>
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B29" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
-      <c r="T29" s="18"/>
-      <c r="U29" s="18"/>
-      <c r="V29" s="18"/>
-      <c r="W29" s="18"/>
-      <c r="X29" s="18"/>
-      <c r="Y29" s="18"/>
-      <c r="Z29" s="18"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="13"/>
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B30" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="18"/>
-      <c r="T30" s="18"/>
-      <c r="U30" s="18"/>
-      <c r="V30" s="18"/>
-      <c r="W30" s="18"/>
-      <c r="X30" s="18"/>
-      <c r="Y30" s="18"/>
-      <c r="Z30" s="18"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="13"/>
+      <c r="Z30" s="13"/>
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B31" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
       <c r="O31" s="2"/>
       <c r="P31" s="11"/>
       <c r="Q31" s="2"/>
@@ -1606,18 +1606,18 @@
       <c r="B32" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
       <c r="O32" s="2"/>
       <c r="P32" s="11"/>
       <c r="Q32" s="2"/>
@@ -1635,18 +1635,18 @@
       <c r="B33" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
@@ -1664,18 +1664,18 @@
       <c r="B34" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
@@ -1693,18 +1693,18 @@
       <c r="B35" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
       <c r="Q35" s="6"/>

--- a/Dahs2BlazorApp/wwwroot/ReportTemplate/FiveMinDailyReportWithStatus.xlsx
+++ b/Dahs2BlazorApp/wwwroot/ReportTemplate/FiveMinDailyReportWithStatus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repo\CPMS2\Dahs2BlazorApp\wwwroot\ReportTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A892F0C-6463-493B-8692-3426BE770457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55E57AA-E329-4582-8A8F-BE1EDC7D3CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{FBCD6651-9FDC-4AB9-82BC-A0DA37555BAF}"/>
+    <workbookView xWindow="6557" yWindow="2769" windowWidth="26357" windowHeight="13054" xr2:uid="{FBCD6651-9FDC-4AB9-82BC-A0DA37555BAF}"/>
   </bookViews>
   <sheets>
     <sheet name="M01" sheetId="1" r:id="rId1"/>
@@ -732,15 +732,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{377D61D4-C69E-4D8B-9ADE-C446139D2D9F}">
   <dimension ref="B1:Z36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:Z30"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.75" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="0.84375" customWidth="1"/>
     <col min="2" max="2" width="9.61328125" customWidth="1"/>
-    <col min="3" max="14" width="8.15234375" customWidth="1"/>
+    <col min="3" max="26" width="10.69140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:26" ht="5.15" customHeight="1" x14ac:dyDescent="0.45"/>
